--- a/Forms/ReportTemplates/Doctor's Consult.xlsx
+++ b/Forms/ReportTemplates/Doctor's Consult.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\i2emr\Forms\Report Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\i2emr\Forms\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C2F17B-4D71-4275-8FAB-4894801071E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECB22A5-3FAA-43AD-8486-16704EE69B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75CF79CF-7F7D-4998-9773-FADB7D42A4C6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -468,7 +468,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,80 +489,77 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
